--- a/Rewards.xlsx
+++ b/Rewards.xlsx
@@ -395,7 +395,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1:Q1048576"/>
@@ -442,6 +442,158 @@
         <v>40</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45073</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45073</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45073</v>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45073</v>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45073</v>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45073</v>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45073</v>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45073</v>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45073</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45073</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45073</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45073</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45073</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45073</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45073</v>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45073</v>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45073</v>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45073</v>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45073</v>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
